--- a/molde/moldediploma.xlsx
+++ b/molde/moldediploma.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="132" windowWidth="10884" windowHeight="10344"/>
+    <workbookView xWindow="190" yWindow="130" windowWidth="10880" windowHeight="10340"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Nombre Estudiante</t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>10,00 DAR</t>
+  </si>
+  <si>
+    <t>tipo</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
 </sst>
 </file>
@@ -411,18 +417,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="36.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,8 +448,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -461,8 +471,11 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -470,7 +483,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -478,7 +491,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -486,7 +499,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -505,7 +518,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -517,7 +530,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
